--- a/biology/Botanique/Ariocarpus_furfuraceus/Ariocarpus_furfuraceus.xlsx
+++ b/biology/Botanique/Ariocarpus_furfuraceus/Ariocarpus_furfuraceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ariocarpus furfuraceus est un cactus du genre Ariocarpus, que l'on peut trouver dans l'état de Coahuila au nord du Mexique. Il est considéré par certains auteurs comme synonyme de Ariocarpus retusus. 
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le A. furfuraceus peut être multiplié à partir de semis.
 </t>
@@ -569,9 +585,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (26 avril 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (26 avril 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Ariocarpus furfuraceus var. cristata Frič
 variété Ariocarpus furfuraceus var. rostratus A. Berger</t>
         </is>
